--- a/data/trans_camb/P1805-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1805-Estudios-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1805-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1805-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,6 +520,12 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,33 +540,69 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2012/2007</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012/2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012/2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
         </is>
       </c>
     </row>
@@ -542,6 +612,12 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -561,12 +637,42 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>2,11</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2,68</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4,28</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3,24</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3,34</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3,02</t>
         </is>
       </c>
     </row>
@@ -584,12 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,24; 3,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,4; 4,37</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3,07; 5,82</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2,38; 4,33</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2,56; 4,37</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2,3; 4,0</t>
         </is>
       </c>
     </row>
@@ -607,12 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -638,6 +804,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -657,12 +853,42 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>1,77</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3,36</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3,69</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3,79</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2,71</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3,58</t>
         </is>
       </c>
     </row>
@@ -680,12 +906,42 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,26; 2,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,51; 4,61</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2,88; 4,71</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2,95; 4,75</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2,21; 3,24</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2,98; 4,29</t>
         </is>
       </c>
     </row>
@@ -703,12 +959,42 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -734,6 +1020,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -753,12 +1069,42 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>1,54</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,08</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2,73</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6,46</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,14</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5,31</t>
         </is>
       </c>
     </row>
@@ -776,12 +1122,42 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,73; 3,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,61; 6,12</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1,64; 4,46</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5,0; 8,46</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,38; 3,11</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>4,13; 6,59</t>
         </is>
       </c>
     </row>
@@ -799,12 +1175,42 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -830,6 +1236,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -849,12 +1285,42 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>1,81</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3,39</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3,71</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>4,17</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2,78</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3,8</t>
         </is>
       </c>
     </row>
@@ -872,12 +1338,42 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,39; 2,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,64; 4,19</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3,12; 4,44</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3,52; 4,95</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2,43; 3,27</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3,37; 4,32</t>
         </is>
       </c>
     </row>
@@ -895,12 +1391,42 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -926,6 +1452,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -935,10 +1491,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P1805-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1805-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>2,97</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,37</t>
+          <t>1,4; 4,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,33</t>
+          <t>2,36; 4,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,3; 4,0</t>
+          <t>2,27; 3,96</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>3,3</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,51; 4,61</t>
+          <t>2,07; 4,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,95; 4,75</t>
+          <t>2,46; 4,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,98; 4,29</t>
+          <t>2,55; 3,99</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,08</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>6,37</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>5,26</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,61; 6,12</t>
+          <t>2,66; 6,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,0; 8,46</t>
+          <t>4,91; 8,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,13; 6,59</t>
+          <t>4,11; 6,55</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,17</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>3,6</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,64; 4,19</t>
+          <t>2,31; 4,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,52; 4,95</t>
+          <t>3,17; 4,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,37; 4,32</t>
+          <t>3,09; 4,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1805-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1805-Estudios-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,4</t>
+          <t>1,23; 3,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,33</t>
+          <t>1,42; 4,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,07; 5,82</t>
+          <t>3,04; 5,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,36; 4,26</t>
+          <t>2,29; 4,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,56; 4,37</t>
+          <t>2,52; 4,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,27; 3,96</t>
+          <t>2,22; 3,92</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,42</t>
+          <t>1,28; 2,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 4,31</t>
+          <t>2,07; 4,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,88; 4,71</t>
+          <t>2,85; 4,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 4,44</t>
+          <t>2,56; 4,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 3,24</t>
+          <t>2,23; 3,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,55; 3,99</t>
+          <t>2,62; 4,03</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,03</t>
+          <t>0,69; 2,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,66; 6,32</t>
+          <t>2,6; 6,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,46</t>
+          <t>1,59; 4,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,91; 8,44</t>
+          <t>4,76; 8,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,11</t>
+          <t>1,39; 3,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,11; 6,55</t>
+          <t>4,16; 6,64</t>
         </is>
       </c>
     </row>
@@ -1338,12 +1338,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,29</t>
+          <t>1,4; 2,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,31; 4,06</t>
+          <t>2,46; 4,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,12; 4,44</t>
+          <t>3,11; 4,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,17; 4,74</t>
+          <t>3,14; 4,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,43; 3,27</t>
+          <t>2,39; 3,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,09; 4,2</t>
+          <t>3,04; 4,16</t>
         </is>
       </c>
     </row>
